--- a/src/text_generation/sample/correction_script.xlsx
+++ b/src/text_generation/sample/correction_script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khk17\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C81F61-7D90-4199-962E-84DEED31903A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A4AD9E-8B9D-4063-84AE-EE5E238EB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10272" firstSheet="4" activeTab="7" xr2:uid="{03E4F9FC-7D9D-4461-A787-892BAE39FF40}"/>
+    <workbookView xWindow="2748" yWindow="2748" windowWidth="12960" windowHeight="7284" firstSheet="6" activeTab="8" xr2:uid="{03E4F9FC-7D9D-4461-A787-892BAE39FF40}"/>
   </bookViews>
   <sheets>
     <sheet name="correction_script_type" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="key_expression" sheetId="10" r:id="rId5"/>
     <sheet name="example" sheetId="7" r:id="rId6"/>
     <sheet name="generated_text" sheetId="5" r:id="rId7"/>
-    <sheet name="evaluation_prompt" sheetId="9" r:id="rId8"/>
-    <sheet name="inference_evaluation" sheetId="8" r:id="rId9"/>
+    <sheet name="train" sheetId="12" r:id="rId8"/>
+    <sheet name="instruction_prompt" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,15 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,14 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예시1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,30 +133,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>evaluation_prompt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시 프롬프트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluation_prompt_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영어 문장 교정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>speaker_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,19 +150,77 @@
   </si>
   <si>
     <t>## 답변 조건 ##
-1) 어색한 영어 문장: 초등학생이 쓴 것 같은 어색하고 문법적으로 오류가 많은 영어 문장 세 문장을 작성할 것. 이 때 한국어가 반드시 부분적으로 혼용되어야 함.
-2) 교정된 영어 문장: 어색한 영어 문장을 원어민이 작성한 것처럼 자연스럽고 고급스럽게 교정하여 재 작성할 것.
+1) 어색한 영어 문장: 한국인이 작성한 것 같은 어색하고 문법적으로 오류가 많은 영어 문장을 열 문장 이내로 작성할 것. 주어진 주제의 내용으로 구성할 것. 이 때 한국어가 반드시 부분적으로 혼용되어야 함.
+2) 교정된 영어 문장: 어색한 영어 문장을 원어민이 작성한 것처럼 고급스럽게 교정하여 재 작성할 것.
 3) 해석: 교정된 영어 문장의 한국어 해석을 자연스럽게 작성할 것
 4) 교정 내용과 교정 이유: 어색한 영어 문장을 어떻게 교정하였는지 교정한 내용과 교정한 이유를 10개 항목 이내로 작성할 것. 
 ## 답변 형태 ##
 ### 교정 전 ###
 {어색한 영어 문장}
+#####
 ### 교정 후 ###
 {교정된 영어 문장}
 ### 해석 ###
 {교정된 문장의 한국어 해석}
 ### 교정 지점 ###
 {교정 내용과 교정 이유}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상적인 이야기를 일기처럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 중독에 대한 위험성을 설명하는 설명문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서 습관의 중요성을 이야기 하는 설명문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연애 상담을 하는 친구의 이야기를 듣는 것처럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자녀 관점에서 부모님의 진로 상담을 듣는 것처럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 관점에서 청년 실업에 대한 심각성을 이야기하는 것처럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행의 즐거움에 대해 이야기하는 3인칭 전지적 관점의 소설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">당신은 영어 문장을 교정하는 선생님입니다. 다음의 어색한 영어 문장을 원어민이 작성한 것처럼 자연스럽고 고급스럽게 교정해주세요.
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruction_prompt_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,9 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -645,7 +668,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
@@ -660,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.7">
@@ -668,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -710,13 +733,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="4"/>
-    <col min="2" max="2" width="27.8984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="62.94921875" style="4" customWidth="1"/>
     <col min="3" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
@@ -725,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.7">
@@ -733,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +770,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
@@ -762,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -784,10 +807,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3105B961-7172-40E6-8998-4FC3DA3FBBB0}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
@@ -802,7 +825,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A4" s="4">
         <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +895,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
@@ -831,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -842,17 +921,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFD8ECF-E8A6-48C8-85B4-73D41CEA348C}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="5" width="8.796875" style="4"/>
-    <col min="6" max="7" width="23.34765625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="4.6484375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.34765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.19921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.44921875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6484375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" style="4"/>
+    <col min="13" max="13" width="6.34765625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.6484375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.94921875" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.7">
@@ -860,78 +952,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -942,15 +1002,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE56A3E9-B3A6-4F4B-BF72-43D26966AAE9}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="1" width="8.796875" style="4"/>
+    <col min="2" max="2" width="13.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.6484375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.84765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="4"/>
+    <col min="7" max="7" width="11.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.7">
@@ -958,45 +1026,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1006,35 +1054,48 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABC93E-DA5C-4F3F-8B73-8EFE2896A9F4}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4C546A-177E-4EFA-8ABC-A34E9945419F}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="2" max="2" width="14.84765625" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.84765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1044,59 +1105,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E783A13-EB49-46F2-A7D4-6E7CED0A5801}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABC93E-DA5C-4F3F-8B73-8EFE2896A9F4}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="4"/>
+    <col min="3" max="3" width="55.546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
